--- a/DATA_goal/Junction_Flooding_172.xlsx
+++ b/DATA_goal/Junction_Flooding_172.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41604.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.75</v>
+        <v>1.88</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41604.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.6</v>
+        <v>2.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.27</v>
+        <v>4.53</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.39</v>
+        <v>3.64</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.12</v>
+        <v>1.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>54.65</v>
+        <v>5.47</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.36</v>
+        <v>2.44</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.67</v>
+        <v>1.57</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.82</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>237.15</v>
+        <v>23.72</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>44.83</v>
+        <v>4.48</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.17</v>
+        <v>1.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.39</v>
+        <v>3.04</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.55</v>
+        <v>2.85</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.28</v>
+        <v>4.93</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41604.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>39.79</v>
+        <v>3.98</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.35</v>
+        <v>3.23</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>55.87</v>
+        <v>5.59</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.65</v>
+        <v>2.17</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.95</v>
+        <v>1.39</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.25</v>
+        <v>1.23</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>208.74</v>
+        <v>20.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>39.77</v>
+        <v>3.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.95</v>
+        <v>2.69</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.58</v>
+        <v>2.76</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>50.7</v>
+        <v>5.07</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41604.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.65</v>
+        <v>1.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.73</v>
+        <v>4.07</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.33</v>
+        <v>3.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.48</v>
+        <v>5.75</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.33</v>
+        <v>2.23</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.05</v>
+        <v>1.71</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.84</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>214.53</v>
+        <v>21.45</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.81</v>
+        <v>4.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.65</v>
+        <v>2.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.12</v>
+        <v>2.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.19</v>
+        <v>1.22</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.02</v>
+        <v>5.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41604.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>30.85</v>
+        <v>3.08</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>25.26</v>
+        <v>2.53</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>44.95</v>
+        <v>4.5</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>12.92</v>
+        <v>1.29</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>160.78</v>
+        <v>16.08</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>30.96</v>
+        <v>3.1</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>20.98</v>
+        <v>2.1</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>21.78</v>
+        <v>2.18</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>40.7</v>
+        <v>4.07</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41604.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>16.37</v>
+        <v>1.64</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>2.75</v>
+        <v>0.28</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC7" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>2.33</v>
-      </c>
       <c r="AD7" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41604.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>21.6</v>
+        <v>2.16</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>17.71</v>
+        <v>1.77</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>28.49</v>
+        <v>2.85</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="P8" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
         <v>11.04</v>
       </c>
-      <c r="Q8" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>110.43</v>
-      </c>
       <c r="U8" s="4" t="n">
-        <v>21.54</v>
+        <v>2.15</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41604.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45</v>
+        <v>4.5</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>37.08</v>
+        <v>3.71</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.25</v>
+        <v>1.63</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>60.45</v>
+        <v>6.04</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>24.91</v>
+        <v>2.49</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.19</v>
+        <v>1.82</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.12</v>
+        <v>2.31</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>238.66</v>
+        <v>23.87</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>45.16</v>
+        <v>4.52</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>30.6</v>
+        <v>3.06</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>30.03</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.55</v>
+        <v>1.36</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.11</v>
+        <v>1.91</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>54.73</v>
+        <v>5.47</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41604.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_172.xlsx
+++ b/DATA_goal/Junction_Flooding_172.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,11 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -462,12 +462,12 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41604.34027777778</v>
+        <v>44853.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.67</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="V2" s="4" t="n">
+      <c r="AF2" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41604.34722222222</v>
+        <v>44853.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.26</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.53</v>
+        <v>0.52</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.64</v>
+        <v>0.49</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.24</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.47</v>
+        <v>0.88</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.44</v>
+        <v>0.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.19</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.31</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.85</v>
+        <v>0.37</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.22</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.28</v>
+        <v>0.34</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="AD3" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.87</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>1.83</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41604.35416666666</v>
+        <v>44853.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.98</v>
+        <v>4.11</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.23</v>
+        <v>3.43</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.59</v>
+        <v>5.27</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.17</v>
+        <v>2.34</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.07</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.87</v>
+        <v>22.13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.98</v>
+        <v>4.19</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W4" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z4" s="4" t="n">
         <v>2.69</v>
       </c>
-      <c r="X4" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.76</v>
-      </c>
       <c r="AA4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB4" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="AB4" s="4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AC4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.07</v>
+        <v>4.77</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41604.36111111111</v>
+        <v>44853.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.86</v>
+        <v>0.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.38</v>
+        <v>0.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.07</v>
+        <v>1.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.33</v>
+        <v>1.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.47</v>
+        <v>0.65</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.75</v>
+        <v>2.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.23</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.46</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.7</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.66</v>
+        <v>0.78</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.71</v>
+        <v>0.73</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.44</v>
+        <v>0.61</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.08</v>
+        <v>0.92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.24</v>
+        <v>0.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.45</v>
+        <v>8.98</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.08</v>
+        <v>1.8</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z5" s="4" t="n">
         <v>1.36</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.81</v>
-      </c>
       <c r="AA5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.04</v>
+        <v>0.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.74</v>
+        <v>0.78</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.67</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41604.36805555555</v>
+        <v>44853.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.41</v>
+        <v>2.05</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.05</v>
+        <v>1.95</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.08</v>
+        <v>4.82</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.53</v>
+        <v>4.19</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.11</v>
+        <v>1.93</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.5</v>
+        <v>11.39</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.69</v>
+        <v>2.99</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.12</v>
+        <v>2.23</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.26</v>
+        <v>2.6</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.29</v>
+        <v>2.06</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.58</v>
+        <v>2.82</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>16.08</v>
+        <v>21.2</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.1</v>
+        <v>5.52</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.1</v>
+        <v>3.69</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.18</v>
+        <v>5.34</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.89</v>
+        <v>1.53</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.79</v>
+        <v>1.76</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.92</v>
+        <v>1.31</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.32</v>
+        <v>2.47</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.07</v>
+        <v>10.64</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.98</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41604.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41604.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41604.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>23.87</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41604.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41604.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>23.92</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>96.06999999999999</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>7.74</v>
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_172.xlsx
+++ b/DATA_goal/Junction_Flooding_172.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44853.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44853.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.85</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.77</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.75</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44853.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.65</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.11</v>
+        <v>41.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.43</v>
+        <v>34.34</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.21</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.27</v>
+        <v>52.72</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.34</v>
+        <v>23.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.09</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.46</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.56</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.13</v>
+        <v>221.33</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.19</v>
+        <v>41.91</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.82</v>
+        <v>28.17</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.64</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.69</v>
+        <v>26.86</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.25</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.09</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.77</v>
+        <v>47.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44853.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.63</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.98</v>
+        <v>89.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.65</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.07</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.65</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.6</v>
+        <v>25.95</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.35</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_172.xlsx
+++ b/DATA_goal/Junction_Flooding_172.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44853.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.08</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.36</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.86</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.66</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.25</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.31</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.63</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.54</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.45</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.19</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.7</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.52</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.2</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
@@ -762,91 +762,91 @@
         <v>2.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.56</v>
+        <v>2.559</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.418</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.24</v>
+        <v>5.241</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.85</v>
+        <v>4.853</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.44</v>
+        <v>2.443</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.77</v>
+        <v>8.766</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.57</v>
+        <v>3.568</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.07</v>
+        <v>3.071</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.7</v>
+        <v>3.699</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.2</v>
+        <v>2.201</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.73</v>
+        <v>1.725</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.38</v>
+        <v>3.384</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.447</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.67</v>
+        <v>26.667</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.43</v>
+        <v>6.426</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.68</v>
+        <v>1.679</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.04</v>
+        <v>4.039</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.34</v>
+        <v>3.343</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.75</v>
+        <v>4.752</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.68</v>
+        <v>2.678</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.181</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.34</v>
+        <v>3.339</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>8.119999999999999</v>
@@ -855,7 +855,7 @@
         <v>1.13</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.61</v>
+        <v>2.605</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44853.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.65</v>
+        <v>18.655</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.69</v>
+        <v>14.685</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.13</v>
+        <v>41.126</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.34</v>
+        <v>34.343</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.21</v>
+        <v>15.209</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>52.72</v>
+        <v>52.723</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.36</v>
+        <v>23.363</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.66</v>
+        <v>10.655</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.09</v>
+        <v>16.088</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.59</v>
+        <v>17.588</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.46</v>
+        <v>17.464</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.64</v>
+        <v>4.635</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>14.66</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.56</v>
+        <v>21.559</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.23</v>
+        <v>12.227</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.33</v>
+        <v>221.329</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41.91</v>
+        <v>41.915</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.58</v>
+        <v>13.576</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.17</v>
+        <v>28.174</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.64</v>
+        <v>15.637</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>2.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.86</v>
+        <v>26.859</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.25</v>
+        <v>12.247</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.44</v>
+        <v>11.445</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.19</v>
+        <v>12.193</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.09</v>
+        <v>18.093</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>47.71</v>
+        <v>47.712</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.89</v>
+        <v>7.891</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44853.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_172.xlsx
+++ b/DATA_goal/Junction_Flooding_172.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,34 +967,34 @@
         <v>44853.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.73</v>
+        <v>7.732</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.32</v>
+        <v>6.316</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.26</v>
+        <v>17.261</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.52</v>
+        <v>14.524</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.48</v>
+        <v>6.479</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>28.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.63</v>
+        <v>4.631</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.99</v>
+        <v>6.986</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>7.75</v>
@@ -1003,67 +1003,171 @@
         <v>7.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.91</v>
+        <v>1.907</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.1</v>
+        <v>6.097</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.23</v>
+        <v>9.233000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.15</v>
+        <v>5.149</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.152</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.81</v>
+        <v>89.80800000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.04</v>
+        <v>18.035</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.65</v>
+        <v>5.653</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.07</v>
+        <v>12.066</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.89</v>
+        <v>6.889</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.65</v>
+        <v>13.647</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.2</v>
+        <v>5.203</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.08</v>
+        <v>5.084</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.04</v>
+        <v>5.035</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.84</v>
+        <v>7.835</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.95</v>
+        <v>25.951</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.35</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.38</v>
+        <v>7.376</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44853.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_172.xlsx
+++ b/DATA_goal/Junction_Flooding_172.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,34 +967,34 @@
         <v>44853.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.732</v>
+        <v>7.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.316</v>
+        <v>6.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.261</v>
+        <v>17.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.524</v>
+        <v>14.52</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.479</v>
+        <v>6.48</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>28.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.978999999999999</v>
+        <v>9.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.631</v>
+        <v>4.63</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.986</v>
+        <v>6.99</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>7.75</v>
@@ -1003,171 +1003,67 @@
         <v>7.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.097</v>
+        <v>6.1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.233000000000001</v>
+        <v>9.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.149</v>
+        <v>5.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.063</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.80800000000001</v>
+        <v>89.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.035</v>
+        <v>18.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.653</v>
+        <v>5.65</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.066</v>
+        <v>12.07</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.889</v>
+        <v>6.89</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.861</v>
+        <v>0.86</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.647</v>
+        <v>13.65</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.203</v>
+        <v>5.2</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.084</v>
+        <v>5.08</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.035</v>
+        <v>5.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.835</v>
+        <v>7.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.138</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.951</v>
+        <v>25.95</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.35</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.376</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44853.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>
